--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_6630.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_6630.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +426,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6630</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Haris</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +515,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -499,7 +563,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -551,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4641</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_6630.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_6630.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -555,7 +556,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -750,6 +750,145 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4641</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_6630.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_6630.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,6 +555,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -750,145 +750,6 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4641</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.94%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
